--- a/data/trans_orig/MCS12_SP_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MCS12_SP_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>120145</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100111</v>
+        <v>102314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>139312</v>
+        <v>138304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2535895785352554</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2113039713180024</v>
+        <v>0.2159533344121513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2940463281595716</v>
+        <v>0.291919190583642</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -765,19 +765,19 @@
         <v>49573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35791</v>
+        <v>37335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64056</v>
+        <v>63787</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.161644259672069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1167050211062921</v>
+        <v>0.121737673540098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2088677418959769</v>
+        <v>0.2079928134895199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -786,19 +786,19 @@
         <v>169718</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>148747</v>
+        <v>147338</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195500</v>
+        <v>194904</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2174596800779634</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1905893769539818</v>
+        <v>0.1887842822075237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2504947032550439</v>
+        <v>0.2497306203921977</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>160442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140803</v>
+        <v>140978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181737</v>
+        <v>183687</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3386462681303919</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2971939667890259</v>
+        <v>0.29756323372461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3835926730964912</v>
+        <v>0.3877075638676168</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -836,19 +836,19 @@
         <v>101481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85833</v>
+        <v>84345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119309</v>
+        <v>117546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3309015464075813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2798789204282607</v>
+        <v>0.2750267372534209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3890345910659159</v>
+        <v>0.3832845767018556</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -857,19 +857,19 @@
         <v>261924</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234551</v>
+        <v>236844</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286755</v>
+        <v>291142</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3356029809583556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3005304269075576</v>
+        <v>0.3034685771930092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3674198149790532</v>
+        <v>0.3730408533214625</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>110605</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93496</v>
+        <v>92954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>129838</v>
+        <v>132817</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2334543637416535</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1973426024929748</v>
+        <v>0.1961982368793183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2740500398891464</v>
+        <v>0.2803379262227682</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -907,19 +907,19 @@
         <v>87088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71438</v>
+        <v>72085</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>104313</v>
+        <v>103856</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2839700058305459</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2329400441367863</v>
+        <v>0.235048092679716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3401367511314369</v>
+        <v>0.3386472864300639</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>187</v>
@@ -928,19 +928,19 @@
         <v>197693</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173276</v>
+        <v>173187</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>222945</v>
+        <v>221870</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2533044772845991</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.222018301573406</v>
+        <v>0.2219045115467525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2856592063363982</v>
+        <v>0.2842823742203437</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>82584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65748</v>
+        <v>65283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101423</v>
+        <v>99390</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1743097895926992</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1387750115028197</v>
+        <v>0.1377931474755865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2140728412008232</v>
+        <v>0.2097816566424841</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -978,19 +978,19 @@
         <v>68538</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54521</v>
+        <v>54938</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84425</v>
+        <v>83901</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2234841880898037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1777767485735733</v>
+        <v>0.1791383334307394</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2752873227243907</v>
+        <v>0.2735768220521554</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>144</v>
@@ -999,19 +999,19 @@
         <v>151122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129328</v>
+        <v>129088</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173972</v>
+        <v>175297</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.193632861679082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1657080876288193</v>
+        <v>0.1654002302002567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2229098005726772</v>
+        <v>0.2246087859161577</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>94197</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79130</v>
+        <v>78322</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>112417</v>
+        <v>113811</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2567131929414314</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2156522759474404</v>
+        <v>0.2134509803929542</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3063692016372453</v>
+        <v>0.310166721718971</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -1124,19 +1124,19 @@
         <v>51004</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39696</v>
+        <v>38966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>65828</v>
+        <v>65897</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1371581609698389</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1067489890159633</v>
+        <v>0.104784218393306</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1770200529280398</v>
+        <v>0.1772074441692903</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>139</v>
@@ -1145,19 +1145,19 @@
         <v>145201</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>125490</v>
+        <v>124722</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>168112</v>
+        <v>168951</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1965367233429344</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1698570180710691</v>
+        <v>0.1688174038214697</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2275477968099905</v>
+        <v>0.2286831068591922</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>129846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111432</v>
+        <v>109272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148985</v>
+        <v>147906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.353868511329621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3036831643182024</v>
+        <v>0.297798108104147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4060264397112511</v>
+        <v>0.4030855004203056</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>112</v>
@@ -1195,19 +1195,19 @@
         <v>116827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99534</v>
+        <v>97868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135444</v>
+        <v>133885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3141642023848957</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2676619342321821</v>
+        <v>0.2631803318533738</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3642301772901883</v>
+        <v>0.3600373871051649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>235</v>
@@ -1216,19 +1216,19 @@
         <v>246673</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>218047</v>
+        <v>220175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>269600</v>
+        <v>272577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3338838640860879</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2951369517548096</v>
+        <v>0.2980177774517555</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3649164049274422</v>
+        <v>0.3689460303459752</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>89081</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73557</v>
+        <v>74151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>108296</v>
+        <v>107631</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2427718071005706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2004637180711201</v>
+        <v>0.2020828323858268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.295138603811987</v>
+        <v>0.2933239504008173</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -1266,19 +1266,19 @@
         <v>107392</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90058</v>
+        <v>89856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125761</v>
+        <v>124054</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2887942258079146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2421793772135722</v>
+        <v>0.2416362075288902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3381904240880347</v>
+        <v>0.3335996971364673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>196</v>
@@ -1287,19 +1287,19 @@
         <v>196474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174212</v>
+        <v>174632</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>220762</v>
+        <v>224172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2659365926768887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2358045790758599</v>
+        <v>0.2363728937318081</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2988113408213579</v>
+        <v>0.3034277981782889</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>53810</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40243</v>
+        <v>41371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>69361</v>
+        <v>70591</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.146646488628377</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.109674496066912</v>
+        <v>0.1127475024839072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1890290077893356</v>
+        <v>0.1923802149373613</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>92</v>
@@ -1337,19 +1337,19 @@
         <v>96642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>80178</v>
+        <v>81002</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>114011</v>
+        <v>116225</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2598834108373508</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.215610193591775</v>
+        <v>0.2178276027002476</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3065918394626769</v>
+        <v>0.3125475296028721</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>143</v>
@@ -1358,19 +1358,19 @@
         <v>150451</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>130458</v>
+        <v>130118</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>173643</v>
+        <v>172925</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2036428198940891</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1765815670919237</v>
+        <v>0.1761213162132756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2350344983581862</v>
+        <v>0.2340628006596901</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>117559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98170</v>
+        <v>101324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137268</v>
+        <v>139311</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2167424353521976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1809963333143769</v>
+        <v>0.1868113378860783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2530803251190711</v>
+        <v>0.2568467370593414</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>22425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14908</v>
+        <v>15055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33563</v>
+        <v>32988</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1336581928700951</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08885067895843339</v>
+        <v>0.08972847596117202</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2000380076305874</v>
+        <v>0.1966141454100681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -1504,19 +1504,19 @@
         <v>139984</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117128</v>
+        <v>119424</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161235</v>
+        <v>161114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1971133141152044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1649290752537478</v>
+        <v>0.1681624122926278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2270374337901951</v>
+        <v>0.2268662314102484</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>181760</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>160276</v>
+        <v>160294</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>205644</v>
+        <v>205222</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3351091869419711</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.295500110301569</v>
+        <v>0.2955329702728257</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3791449498645285</v>
+        <v>0.3783670638011455</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -1554,19 +1554,19 @@
         <v>49077</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>38984</v>
+        <v>38330</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>62109</v>
+        <v>60666</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2925021060762832</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2323468335523347</v>
+        <v>0.2284536989267585</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3701752575147554</v>
+        <v>0.3615744257710886</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>222</v>
@@ -1575,19 +1575,19 @@
         <v>230836</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>206117</v>
+        <v>206744</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255755</v>
+        <v>257443</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3250430236012254</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2902364100882894</v>
+        <v>0.291119139518934</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3601318468068305</v>
+        <v>0.3625086502958906</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>144870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>124646</v>
+        <v>126534</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>166160</v>
+        <v>165860</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2670969414136235</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.229808626235414</v>
+        <v>0.2332905295103443</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3063486001072281</v>
+        <v>0.3057958744871728</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1625,19 +1625,19 @@
         <v>53847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42331</v>
+        <v>41754</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66159</v>
+        <v>66794</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3209321761436126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2522988773295142</v>
+        <v>0.2488592617975201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3943138690456183</v>
+        <v>0.3980983636650204</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -1646,19 +1646,19 @@
         <v>198717</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175354</v>
+        <v>174088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>222095</v>
+        <v>222293</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2798158194796367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2469180467374334</v>
+        <v>0.2451356323213194</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3127351527062949</v>
+        <v>0.3130130800845105</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>98200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81592</v>
+        <v>80138</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>116467</v>
+        <v>115190</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1810514362922079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1504311800083243</v>
+        <v>0.1477494049650559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2147290841163305</v>
+        <v>0.2123743615671265</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1696,19 +1696,19 @@
         <v>42433</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31125</v>
+        <v>31863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54241</v>
+        <v>54375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2529075249100092</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1855072107724924</v>
+        <v>0.1899085172873973</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.323283750468442</v>
+        <v>0.3240826083271653</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -1717,19 +1717,19 @@
         <v>140634</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119593</v>
+        <v>119790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163296</v>
+        <v>161998</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1980278428039333</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1684004558082348</v>
+        <v>0.1686777994105922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2299387992357483</v>
+        <v>0.2281110447300557</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>248077</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>222529</v>
+        <v>221046</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>277579</v>
+        <v>277080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.200331588122903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1797000030337279</v>
+        <v>0.1785027085473649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2241554363482886</v>
+        <v>0.2237520256730746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -1842,19 +1842,19 @@
         <v>112754</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95578</v>
+        <v>94248</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>133238</v>
+        <v>133264</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1578558723743536</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1338090402651794</v>
+        <v>0.1319473236687263</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1865340597478528</v>
+        <v>0.1865700210101298</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>359</v>
@@ -1863,19 +1863,19 @@
         <v>360832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>326599</v>
+        <v>327659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>395436</v>
+        <v>394071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1847936007859103</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1672620334851769</v>
+        <v>0.1678046519360085</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2025153879776865</v>
+        <v>0.2018166038979874</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>392827</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>361946</v>
+        <v>360493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>427773</v>
+        <v>424550</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3172224149918336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2922846604063291</v>
+        <v>0.2911109936736122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3454425789332375</v>
+        <v>0.342839801172803</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>211</v>
@@ -1913,19 +1913,19 @@
         <v>219635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198023</v>
+        <v>194243</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>245936</v>
+        <v>245430</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3074892978703385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2772325991517661</v>
+        <v>0.2719404909067787</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3443107445359497</v>
+        <v>0.3436020690983516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -1934,19 +1934,19 @@
         <v>612463</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>570914</v>
+        <v>571401</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>654357</v>
+        <v>655491</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3136619558466944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2923833686182881</v>
+        <v>0.2926332204762065</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3351171796372853</v>
+        <v>0.3356980648634793</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>326830</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>295108</v>
+        <v>297180</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>360857</v>
+        <v>357130</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2639267936415224</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2383102637143293</v>
+        <v>0.2399839174491008</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2914051449090402</v>
+        <v>0.288395856138136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>187</v>
@@ -1984,19 +1984,19 @@
         <v>191801</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>169209</v>
+        <v>168554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>216757</v>
+        <v>216672</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2685211316137077</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2368927109471446</v>
+        <v>0.2359758279418071</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3034604168264733</v>
+        <v>0.3033404324221244</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>509</v>
@@ -2005,19 +2005,19 @@
         <v>518630</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>478801</v>
+        <v>479719</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>560585</v>
+        <v>558420</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2656074425482125</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2452097472008573</v>
+        <v>0.245679614303852</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2870937572388808</v>
+        <v>0.2859850717688425</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>270600</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>241245</v>
+        <v>240842</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>301823</v>
+        <v>302106</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.218519203243741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1948141414849149</v>
+        <v>0.1944887612013754</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2437329851926211</v>
+        <v>0.2439614821510838</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>184</v>
@@ -2055,19 +2055,19 @@
         <v>190095</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168124</v>
+        <v>166868</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213674</v>
+        <v>214428</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2661336981416002</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2353733187010735</v>
+        <v>0.2336147983636273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2991438611691361</v>
+        <v>0.3001989704453449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>452</v>
@@ -2076,19 +2076,19 @@
         <v>460695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>422032</v>
+        <v>425349</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>499855</v>
+        <v>497256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2359370008191829</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2161362270731795</v>
+        <v>0.2178350851559862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2559917362479968</v>
+        <v>0.2546609964569371</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>90383</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74635</v>
+        <v>73792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>108523</v>
+        <v>107446</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2578290367607659</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2129042522752535</v>
+        <v>0.2105004179666081</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.30957430393657</v>
+        <v>0.3065039443022525</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>79</v>
@@ -2201,19 +2201,19 @@
         <v>85540</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>69812</v>
+        <v>68437</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104920</v>
+        <v>103803</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1503996995184048</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1227466087554528</v>
+        <v>0.1203277656923278</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1844735249732046</v>
+        <v>0.1825100045559168</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>166</v>
@@ -2222,19 +2222,19 @@
         <v>175923</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>152438</v>
+        <v>151017</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>200189</v>
+        <v>201274</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.19136524830667</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1658180284374912</v>
+        <v>0.1642729825122288</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2177609040780642</v>
+        <v>0.2189408227459579</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>109333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91359</v>
+        <v>91782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128758</v>
+        <v>126031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3118849099070452</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2606129502909738</v>
+        <v>0.261819614219789</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3672981404793502</v>
+        <v>0.3595181275401822</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>144</v>
@@ -2272,19 +2272,19 @@
         <v>150677</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>129150</v>
+        <v>128798</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>172235</v>
+        <v>173295</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2649253073896829</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2270752531227079</v>
+        <v>0.226457595006537</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3028303348433127</v>
+        <v>0.3046925690095084</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>253</v>
@@ -2293,19 +2293,19 @@
         <v>260010</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>231183</v>
+        <v>232267</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>287864</v>
+        <v>286714</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2828322026324844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2514753235290054</v>
+        <v>0.2526541693879752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3131314874586127</v>
+        <v>0.3118800947960583</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>81809</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>65692</v>
+        <v>66625</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98027</v>
+        <v>97765</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2333694359219858</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1873947175872833</v>
+        <v>0.1900566400602882</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2796351419099172</v>
+        <v>0.2788872221289054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>156</v>
@@ -2343,19 +2343,19 @@
         <v>166093</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>145467</v>
+        <v>144406</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>188315</v>
+        <v>188471</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2920306852094708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2557644072544696</v>
+        <v>0.2538998234640824</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3311019888931088</v>
+        <v>0.3313763866164894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>235</v>
@@ -2364,19 +2364,19 @@
         <v>247902</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>217679</v>
+        <v>222308</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>272984</v>
+        <v>277946</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2696616533290481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2367859633969623</v>
+        <v>0.2418211941824125</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2969456907099177</v>
+        <v>0.302343191713316</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>69030</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>54263</v>
+        <v>55729</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>86756</v>
+        <v>85781</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1969166174102032</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1547928832314459</v>
+        <v>0.1589739495682083</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2474831997014428</v>
+        <v>0.2447008142472726</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>160</v>
@@ -2414,19 +2414,19 @@
         <v>166442</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>147783</v>
+        <v>144103</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>190967</v>
+        <v>189143</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2926443078824415</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2598365708161495</v>
+        <v>0.2533667750200611</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3357647792676003</v>
+        <v>0.3325577118960076</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>225</v>
@@ -2435,19 +2435,19 @@
         <v>235472</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>210580</v>
+        <v>208920</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>264298</v>
+        <v>262995</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2561408957317975</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2290634387174725</v>
+        <v>0.2272584932315878</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2874970316956633</v>
+        <v>0.2860791102806211</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>101798</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>87277</v>
+        <v>87516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118829</v>
+        <v>117029</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3413729670195673</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2926789330050592</v>
+        <v>0.2934801215259665</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3984878117765855</v>
+        <v>0.3924499756011846</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>216</v>
@@ -2560,19 +2560,19 @@
         <v>220061</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>193005</v>
+        <v>193493</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>248134</v>
+        <v>247535</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1762236529493315</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1545576779924524</v>
+        <v>0.1549480742140066</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1987042849831155</v>
+        <v>0.1982249306140773</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>322</v>
@@ -2581,19 +2581,19 @@
         <v>321859</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>291662</v>
+        <v>290406</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>355776</v>
+        <v>354026</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2080587386024655</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1885386318679532</v>
+        <v>0.1877272006398376</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2299840689022678</v>
+        <v>0.2288529770447414</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>109733</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>94936</v>
+        <v>95076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126986</v>
+        <v>126355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3679841023266914</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3183625482494632</v>
+        <v>0.318831821756715</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4258395003797156</v>
+        <v>0.4237250966955092</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>372</v>
@@ -2631,19 +2631,19 @@
         <v>369245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>335354</v>
+        <v>338154</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>398551</v>
+        <v>401796</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2956895544798791</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2685493936974084</v>
+        <v>0.2707914395434218</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3191573824462002</v>
+        <v>0.3217555989149739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>486</v>
@@ -2652,19 +2652,19 @@
         <v>478978</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>441770</v>
+        <v>443403</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>514376</v>
+        <v>518568</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.309625447195601</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2855727106639754</v>
+        <v>0.286628568611881</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3325076187076093</v>
+        <v>0.3352176137491992</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>51469</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>39740</v>
+        <v>40035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>66458</v>
+        <v>65440</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1725980184281249</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1332655618916816</v>
+        <v>0.1342557212959373</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2228634349408278</v>
+        <v>0.2194494296911173</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>327</v>
@@ -2702,19 +2702,19 @@
         <v>327540</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>299311</v>
+        <v>297305</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>359670</v>
+        <v>356027</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2622921832018361</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2396868375189224</v>
+        <v>0.2380799340374614</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2880215028573778</v>
+        <v>0.2851044408680488</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>378</v>
@@ -2723,19 +2723,19 @@
         <v>379009</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>347001</v>
+        <v>345413</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>414053</v>
+        <v>412507</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2450022450980482</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2243117650831633</v>
+        <v>0.2232850470054455</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2676562037294113</v>
+        <v>0.2666564906945193</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>35201</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24321</v>
+        <v>25999</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>47241</v>
+        <v>47721</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1180449122256165</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08156000941288079</v>
+        <v>0.08718733012323845</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1584197531473086</v>
+        <v>0.1600289112880901</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>323</v>
@@ -2773,19 +2773,19 @@
         <v>331914</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>299959</v>
+        <v>303197</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>365285</v>
+        <v>363508</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2657946093689533</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2402051972648102</v>
+        <v>0.2427984636055399</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2925182920436111</v>
+        <v>0.2910955573512876</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>358</v>
@@ -2794,19 +2794,19 @@
         <v>367115</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>332769</v>
+        <v>336660</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>401919</v>
+        <v>404290</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2373135691038854</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2151117627939236</v>
+        <v>0.217627121997274</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2598118569984925</v>
+        <v>0.2613448305923425</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>772159</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>723262</v>
+        <v>721861</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>821700</v>
+        <v>824450</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2361204646131116</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2211682999495807</v>
+        <v>0.220739872005587</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2512698845860824</v>
+        <v>0.252110706906274</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>528</v>
@@ -2919,19 +2919,19 @@
         <v>541358</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>497905</v>
+        <v>498174</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>585621</v>
+        <v>583731</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1602540590568046</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1473910219599892</v>
+        <v>0.1474706463446942</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1733568293160546</v>
+        <v>0.172797506319002</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1290</v>
@@ -2940,19 +2940,19 @@
         <v>1313517</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1253713</v>
+        <v>1249671</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1381932</v>
+        <v>1376378</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1975714240261086</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1885760349269095</v>
+        <v>0.1879680638862616</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2078620921548399</v>
+        <v>0.2070265510086832</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>1083942</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1023791</v>
+        <v>1035053</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1137352</v>
+        <v>1141185</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3314614915646806</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3130677879120402</v>
+        <v>0.3165116604859314</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3477938853999434</v>
+        <v>0.3489659113797576</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>987</v>
@@ -2990,19 +2990,19 @@
         <v>1006941</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>955259</v>
+        <v>959326</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1062080</v>
+        <v>1061500</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2980770533009804</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2827780765333839</v>
+        <v>0.2839820160685975</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3143993736517212</v>
+        <v>0.314227667292363</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2052</v>
@@ -3011,19 +3011,19 @@
         <v>2090883</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2013811</v>
+        <v>2018073</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2164607</v>
+        <v>2171215</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.314498277660385</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3029055167718072</v>
+        <v>0.3035465256959775</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3255873570368233</v>
+        <v>0.3265813004182553</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>804664</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>754747</v>
+        <v>753519</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>855179</v>
+        <v>853517</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2460604066336826</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.23079615978507</v>
+        <v>0.2304206795253344</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2615073633330527</v>
+        <v>0.2609991609711295</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>914</v>
@@ -3061,19 +3061,19 @@
         <v>933761</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>883010</v>
+        <v>884106</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>990677</v>
+        <v>988860</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2764139695185414</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2613907839230866</v>
+        <v>0.2617150264934008</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2932623518787237</v>
+        <v>0.2927244729988124</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1700</v>
@@ -3082,19 +3082,19 @@
         <v>1738425</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1669175</v>
+        <v>1664998</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1808555</v>
+        <v>1809612</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2614835800268143</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2510673509103001</v>
+        <v>0.2504390872002635</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2720320646766979</v>
+        <v>0.2721911125593979</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>609425</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>565593</v>
+        <v>562679</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>653894</v>
+        <v>653804</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1863576371885252</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1729543073361687</v>
+        <v>0.1720632373907815</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1999558472698849</v>
+        <v>0.1999285802914505</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>867</v>
@@ -3132,19 +3132,19 @@
         <v>896064</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>845552</v>
+        <v>848717</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>946920</v>
+        <v>951214</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2652549181236736</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2503022589874725</v>
+        <v>0.2512392581932857</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.280309510293386</v>
+        <v>0.2815804244752685</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1461</v>
@@ -3153,19 +3153,19 @@
         <v>1505489</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1435953</v>
+        <v>1437914</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1578188</v>
+        <v>1574695</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2264467182866922</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2159875437171946</v>
+        <v>0.2162824877546135</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2373817383477771</v>
+        <v>0.236856302342878</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>121131</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101655</v>
+        <v>101190</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142718</v>
+        <v>141352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2770548274422069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2325077164884752</v>
+        <v>0.2314453331301011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3264279430606143</v>
+        <v>0.3233033113791722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>70</v>
@@ -3520,19 +3520,19 @@
         <v>81145</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65064</v>
+        <v>66191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98632</v>
+        <v>99862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2580494713723535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.206911927199166</v>
+        <v>0.210496329183316</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3136607939190765</v>
+        <v>0.3175741461846118</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -3541,19 +3541,19 @@
         <v>202276</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>177107</v>
+        <v>179556</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>227209</v>
+        <v>229998</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2691040584138448</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2356193327253823</v>
+        <v>0.2388776151306007</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3022747100617419</v>
+        <v>0.3059848958376924</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>94214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77791</v>
+        <v>78050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114414</v>
+        <v>114495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2154886826448037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1779251577204184</v>
+        <v>0.1785187315234595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2616898660383474</v>
+        <v>0.2618760309145846</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>52</v>
@@ -3591,19 +3591,19 @@
         <v>56174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43712</v>
+        <v>42662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71934</v>
+        <v>71767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1786406475536375</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1390101930054308</v>
+        <v>0.1356713210109963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2287579265162913</v>
+        <v>0.2282266979024307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -3612,19 +3612,19 @@
         <v>150388</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>127429</v>
+        <v>128776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>172852</v>
+        <v>172405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2000735430871947</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1695290464113483</v>
+        <v>0.1713205200463979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.229959475519932</v>
+        <v>0.2293642231483496</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>149481</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129246</v>
+        <v>127865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>171624</v>
+        <v>170524</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.341896143916381</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2956138455345579</v>
+        <v>0.2924562370618427</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3925427142268672</v>
+        <v>0.3900269321592705</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>97</v>
@@ -3662,19 +3662,19 @@
         <v>105760</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87239</v>
+        <v>86829</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123773</v>
+        <v>123534</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3363303207959084</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2774291924690232</v>
+        <v>0.276124827553952</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3936111247285024</v>
+        <v>0.3928530269652891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -3683,19 +3683,19 @@
         <v>255241</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230526</v>
+        <v>227157</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>283326</v>
+        <v>281707</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3395677174496026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3066866583559629</v>
+        <v>0.3022054135587134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3769310051103604</v>
+        <v>0.3747767564410383</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>72385</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57615</v>
+        <v>56071</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88686</v>
+        <v>89807</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1655603459966084</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1317775281903322</v>
+        <v>0.1282472461912775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2028448177206325</v>
+        <v>0.2054093123488906</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3733,19 +3733,19 @@
         <v>71375</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56837</v>
+        <v>56402</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87635</v>
+        <v>89559</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2269795602781006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1807485577926187</v>
+        <v>0.1793663983916936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2786904707754509</v>
+        <v>0.2848084551905997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -3754,19 +3754,19 @@
         <v>143759</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>121698</v>
+        <v>121585</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165860</v>
+        <v>167192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1912546810493579</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1619048589727405</v>
+        <v>0.1617539458584868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2206566364997409</v>
+        <v>0.222429436196629</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>125135</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>105692</v>
+        <v>105907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>146993</v>
+        <v>146630</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2987966551484127</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2523700805196887</v>
+        <v>0.2528832636639931</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3509881115779999</v>
+        <v>0.3501217551158936</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -3879,19 +3879,19 @@
         <v>65546</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50046</v>
+        <v>52096</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>82880</v>
+        <v>84007</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.193916517112441</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1480610990401389</v>
+        <v>0.1541238414564799</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2451986531095444</v>
+        <v>0.2485330765922249</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>171</v>
@@ -3900,19 +3900,19 @@
         <v>190681</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>166506</v>
+        <v>166637</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>218379</v>
+        <v>219298</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2519543278537433</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2200109809361489</v>
+        <v>0.2201843139681088</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2885523861095115</v>
+        <v>0.2897666875215675</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>91481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74412</v>
+        <v>75194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>109566</v>
+        <v>110559</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2184380617015307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1776808674047159</v>
+        <v>0.1795484686272556</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.261620236087769</v>
+        <v>0.2639923994941992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3950,19 +3950,19 @@
         <v>54896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41543</v>
+        <v>40795</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71292</v>
+        <v>68803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1624093553078101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1229042544147786</v>
+        <v>0.1206925824739782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2109153241901537</v>
+        <v>0.2035519833420731</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -3971,19 +3971,19 @@
         <v>146377</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125375</v>
+        <v>124548</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174579</v>
+        <v>168811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1934141148233197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1656625916272096</v>
+        <v>0.1645705785195501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2306776197174997</v>
+        <v>0.2230561441363849</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>115770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96642</v>
+        <v>95324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>133513</v>
+        <v>135683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2764349196014747</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2307600748887695</v>
+        <v>0.2276150149294045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3188003465693581</v>
+        <v>0.3239816583719895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -4021,19 +4021,19 @@
         <v>107256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88958</v>
+        <v>89819</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>124500</v>
+        <v>125483</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3173164868743762</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2631799948943998</v>
+        <v>0.2657275782131183</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3683325593747134</v>
+        <v>0.371240266154633</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -4042,19 +4042,19 @@
         <v>223027</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>198171</v>
+        <v>195897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>250225</v>
+        <v>249182</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.294693741437307</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2618515260278501</v>
+        <v>0.2588465723407084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3306323506694797</v>
+        <v>0.3292545576583919</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>86411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68624</v>
+        <v>67135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104882</v>
+        <v>104191</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2063303635485819</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1638609641400688</v>
+        <v>0.1603037310680779</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2504370441506945</v>
+        <v>0.2487856743372071</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -4092,19 +4092,19 @@
         <v>110312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93184</v>
+        <v>91541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>130331</v>
+        <v>129393</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3263576407053727</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2756834300459489</v>
+        <v>0.2708218143602952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3855821962516365</v>
+        <v>0.3828062385766318</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>173</v>
@@ -4113,19 +4113,19 @@
         <v>196723</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170486</v>
+        <v>173122</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225015</v>
+        <v>222716</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2599378158856301</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2252703483957622</v>
+        <v>0.228753491518505</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2973208514584989</v>
+        <v>0.2942837063518407</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>169273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145847</v>
+        <v>147820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>194942</v>
+        <v>194448</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2689377928670338</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2317189396516799</v>
+        <v>0.2348524300870902</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3097195897906753</v>
+        <v>0.3089346405902642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -4238,19 +4238,19 @@
         <v>58162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45104</v>
+        <v>44717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72891</v>
+        <v>72058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2235901953762452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1733917659209328</v>
+        <v>0.1719030632665696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2802125105411753</v>
+        <v>0.2770076045200007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>210</v>
@@ -4259,19 +4259,19 @@
         <v>227436</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>200612</v>
+        <v>200931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255538</v>
+        <v>256121</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2556767946752317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2255223355423528</v>
+        <v>0.2258807591986897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2872681001014502</v>
+        <v>0.2879233798664623</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>126173</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>105571</v>
+        <v>106282</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>146378</v>
+        <v>148669</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2004605768165807</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1677294070661424</v>
+        <v>0.1688577831940302</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.232561246073415</v>
+        <v>0.2362024824983559</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -4309,19 +4309,19 @@
         <v>30836</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20830</v>
+        <v>20734</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41970</v>
+        <v>41845</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1185421885445955</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08007417641188889</v>
+        <v>0.0797049700692113</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1613424017784844</v>
+        <v>0.1608614576054546</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>151</v>
@@ -4330,19 +4330,19 @@
         <v>157009</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>136347</v>
+        <v>132723</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>180550</v>
+        <v>179951</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1765051820689142</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1532771296703268</v>
+        <v>0.1492037686200132</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2029687886160647</v>
+        <v>0.2022955231365877</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>172482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149786</v>
+        <v>148581</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>196128</v>
+        <v>194016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2740357270536749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2379759503799448</v>
+        <v>0.2360618740958516</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3116032467907207</v>
+        <v>0.3082473427993316</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -4380,19 +4380,19 @@
         <v>81306</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67202</v>
+        <v>65152</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96349</v>
+        <v>96185</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3125585540330267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2583392550182655</v>
+        <v>0.2504596143844003</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3703901951974869</v>
+        <v>0.3697602902512884</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -4401,19 +4401,19 @@
         <v>253788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>226298</v>
+        <v>226866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281239</v>
+        <v>282159</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2853009575660533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2543981138807391</v>
+        <v>0.2550359555152954</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3161611988052711</v>
+        <v>0.3171954057120613</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>161486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141033</v>
+        <v>140181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186701</v>
+        <v>184775</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2565659032627106</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2240694575233956</v>
+        <v>0.2227161032757339</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2966268688671529</v>
+        <v>0.2935658703316842</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>83</v>
@@ -4451,19 +4451,19 @@
         <v>89825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74028</v>
+        <v>75625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>105221</v>
+        <v>106322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3453090620461327</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2845832535558822</v>
+        <v>0.2907221364811098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4044969305520526</v>
+        <v>0.4087279912621958</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>232</v>
@@ -4472,19 +4472,19 @@
         <v>251311</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>222231</v>
+        <v>225920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>281260</v>
+        <v>280733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2825170656898008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2498253723593366</v>
+        <v>0.2539730877553092</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3161841626681047</v>
+        <v>0.3155916955854911</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>318781</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>289105</v>
+        <v>287970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>352674</v>
+        <v>352479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2750465415656986</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2494416755392664</v>
+        <v>0.248462297066078</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3042889777834774</v>
+        <v>0.3041212270167757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>151</v>
@@ -4597,19 +4597,19 @@
         <v>160692</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140158</v>
+        <v>138934</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>186717</v>
+        <v>184987</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2096004656446436</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1828175551086534</v>
+        <v>0.1812200789048733</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2435466317118243</v>
+        <v>0.241291020986355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>447</v>
@@ -4618,19 +4618,19 @@
         <v>479473</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>440487</v>
+        <v>439355</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>520540</v>
+        <v>517571</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2489907753279694</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2287450983304935</v>
+        <v>0.2281574439743007</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2703164966585538</v>
+        <v>0.2687749572798045</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>245174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215359</v>
+        <v>217207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>274757</v>
+        <v>275560</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2115374297327641</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1858132570592327</v>
+        <v>0.1874077387763673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2370616031720878</v>
+        <v>0.2377551366300096</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>128</v>
@@ -4668,19 +4668,19 @@
         <v>137635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116268</v>
+        <v>115190</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159858</v>
+        <v>159323</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1795262937833974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1516555674950744</v>
+        <v>0.1502498606273777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2085131178268687</v>
+        <v>0.2078155156974595</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>357</v>
@@ -4689,19 +4689,19 @@
         <v>382809</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343962</v>
+        <v>347691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>417539</v>
+        <v>419990</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1987929731161905</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1786195126508346</v>
+        <v>0.1805560214105173</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.216828360440111</v>
+        <v>0.2181012719608625</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>312359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>282873</v>
+        <v>279115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>346698</v>
+        <v>341163</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2695049004605748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2440646788893025</v>
+        <v>0.2408217039430764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2991330673208182</v>
+        <v>0.2943570999674465</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>220</v>
@@ -4739,19 +4739,19 @@
         <v>238144</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>211732</v>
+        <v>210674</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>266525</v>
+        <v>263209</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3106267544774068</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2761755055597858</v>
+        <v>0.2747950627480211</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3476455470674599</v>
+        <v>0.3433209458143284</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>515</v>
@@ -4760,19 +4760,19 @@
         <v>550503</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>509201</v>
+        <v>512262</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>589578</v>
+        <v>594872</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2858765682870318</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2644281922971815</v>
+        <v>0.2660178598878414</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3061679592769096</v>
+        <v>0.3089172105812555</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>282695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253397</v>
+        <v>254072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>310556</v>
+        <v>313422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2439111282409624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.218632897971315</v>
+        <v>0.2192149070465764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2679498372842392</v>
+        <v>0.270422422305093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>212</v>
@@ -4810,19 +4810,19 @@
         <v>230186</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205449</v>
+        <v>204235</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>256317</v>
+        <v>258436</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3002464860945522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2679804314942628</v>
+        <v>0.2663973302799681</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3343308935063064</v>
+        <v>0.3370940563113548</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>475</v>
@@ -4831,19 +4831,19 @@
         <v>512882</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>475998</v>
+        <v>475758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>553013</v>
+        <v>556392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2663396832688082</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2471859541831335</v>
+        <v>0.2470612388576527</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2871800275668358</v>
+        <v>0.2889344532788616</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>148248</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>129163</v>
+        <v>127714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>168065</v>
+        <v>169980</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2903434536060018</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2529652328386818</v>
+        <v>0.2501275509868776</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3291542611747954</v>
+        <v>0.3329041587246759</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -4956,19 +4956,19 @@
         <v>139232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>117864</v>
+        <v>119579</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>163417</v>
+        <v>161465</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1828342900438546</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.154774489424876</v>
+        <v>0.1570261702911916</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.214593060484029</v>
+        <v>0.2120299253246308</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>269</v>
@@ -4977,19 +4977,19 @@
         <v>287481</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>255905</v>
+        <v>258781</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>319486</v>
+        <v>319403</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2259857743053988</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.201164572505289</v>
+        <v>0.2034254286011807</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2511445507284441</v>
+        <v>0.2510799543575232</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>125075</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106326</v>
+        <v>107303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147044</v>
+        <v>145816</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2449590776381326</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2082380479139754</v>
+        <v>0.2101518937025833</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2879855924910383</v>
+        <v>0.2855802349775042</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -5027,19 +5027,19 @@
         <v>128960</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109154</v>
+        <v>107286</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151639</v>
+        <v>150549</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1693445152551414</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1433371005495326</v>
+        <v>0.1408837251268722</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1991264422738289</v>
+        <v>0.1976949363695179</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -5048,19 +5048,19 @@
         <v>254035</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226586</v>
+        <v>226435</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>283124</v>
+        <v>282606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1996943058265008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1781169325842913</v>
+        <v>0.1779987153587413</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2225612123327883</v>
+        <v>0.2221536526850202</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>119775</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100782</v>
+        <v>100149</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139486</v>
+        <v>139744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2345780101735049</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1973802808198094</v>
+        <v>0.1961406641875571</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2731819434618996</v>
+        <v>0.2736878522769642</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>180</v>
@@ -5098,19 +5098,19 @@
         <v>195435</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>170998</v>
+        <v>172769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220630</v>
+        <v>221165</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2566377755670169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2245483136706032</v>
+        <v>0.2268739281673593</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2897218601839397</v>
+        <v>0.2904243138611175</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -5119,19 +5119,19 @@
         <v>315210</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>286747</v>
+        <v>283646</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345444</v>
+        <v>349030</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2477835385173423</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2254091188958123</v>
+        <v>0.222971468602245</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2715501166474704</v>
+        <v>0.2743693421927734</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>117498</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>98561</v>
+        <v>98485</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>138913</v>
+        <v>137657</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2301194585823606</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.193031978975522</v>
+        <v>0.1928826517259377</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2720596274204096</v>
+        <v>0.2696005140716182</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>277</v>
@@ -5169,19 +5169,19 @@
         <v>297895</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>268737</v>
+        <v>271272</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>323827</v>
+        <v>325668</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3911834191339872</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3528947877627219</v>
+        <v>0.3562236266516583</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4252359220791112</v>
+        <v>0.4276542434224156</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>388</v>
@@ -5190,19 +5190,19 @@
         <v>415393</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>382147</v>
+        <v>382327</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>450762</v>
+        <v>451252</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3265363813507581</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3004023033085054</v>
+        <v>0.3005435923390773</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3543393921920799</v>
+        <v>0.3547250047667146</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>112902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97807</v>
+        <v>97549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>129082</v>
+        <v>129588</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4230426447107229</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3664785489486449</v>
+        <v>0.3655139411197321</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4836661564296132</v>
+        <v>0.4855624041495487</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>247</v>
@@ -5315,19 +5315,19 @@
         <v>262392</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>232509</v>
+        <v>229215</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>291451</v>
+        <v>289089</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2365278631356772</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2095897921676979</v>
+        <v>0.2066210866828323</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2627221107517245</v>
+        <v>0.2605924580538789</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>361</v>
@@ -5336,19 +5336,19 @@
         <v>375295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>341553</v>
+        <v>343507</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>408795</v>
+        <v>410792</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2726971873653826</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2481795106380644</v>
+        <v>0.2495992573574689</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2970391025357244</v>
+        <v>0.2984900935453018</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>68093</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55357</v>
+        <v>53877</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>82903</v>
+        <v>83062</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2551425878012111</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2074217554118114</v>
+        <v>0.2018772256630151</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3106370964588018</v>
+        <v>0.3112309023710235</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>170</v>
@@ -5386,19 +5386,19 @@
         <v>177219</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>154611</v>
+        <v>152129</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>205147</v>
+        <v>203239</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1597497459845909</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1393709706211156</v>
+        <v>0.1371333689467849</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1849249835227576</v>
+        <v>0.1832048909599767</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>236</v>
@@ -5407,19 +5407,19 @@
         <v>245311</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216445</v>
+        <v>217273</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>277804</v>
+        <v>272832</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1782485190883735</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1572731881050987</v>
+        <v>0.1578752085540583</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2018582956030779</v>
+        <v>0.1982453531414086</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>44794</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>33992</v>
+        <v>34310</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>56807</v>
+        <v>57680</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1678414614878157</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1273682493010622</v>
+        <v>0.1285576370826434</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2128525425003538</v>
+        <v>0.2161251371551667</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>289</v>
@@ -5457,19 +5457,19 @@
         <v>308634</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>282838</v>
+        <v>279013</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>340089</v>
+        <v>340911</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2782114577771068</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2549583219679653</v>
+        <v>0.2515099781503168</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3065655704493367</v>
+        <v>0.3073069685994119</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>334</v>
@@ -5478,19 +5478,19 @@
         <v>353428</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>323290</v>
+        <v>323239</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>387270</v>
+        <v>389407</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2568082845416786</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2349095374081012</v>
+        <v>0.2348725281580195</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2813988441138903</v>
+        <v>0.2829516121200858</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>41093</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30091</v>
+        <v>30465</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54081</v>
+        <v>54337</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1539733060002503</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1127484314786378</v>
+        <v>0.1141511463489892</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2026414953179442</v>
+        <v>0.2035988041058364</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>338</v>
@@ -5528,19 +5528,19 @@
         <v>361106</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>330853</v>
+        <v>330232</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>394272</v>
+        <v>394307</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3255109331026251</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2982396935136267</v>
+        <v>0.2976801598692191</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3554074087988653</v>
+        <v>0.3554394528885619</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>378</v>
@@ -5549,19 +5549,19 @@
         <v>402199</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>365550</v>
+        <v>368809</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>438094</v>
+        <v>437000</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2922460090045653</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2656165540490599</v>
+        <v>0.267984088762789</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3183280754266</v>
+        <v>0.3175331947106614</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>995472</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>942297</v>
+        <v>938302</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1052862</v>
+        <v>1045543</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.290911254476661</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2753715420445897</v>
+        <v>0.2742041984159999</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3076826896910748</v>
+        <v>0.3055436646171961</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>706</v>
@@ -5674,19 +5674,19 @@
         <v>767170</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>721477</v>
+        <v>712134</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>822798</v>
+        <v>815684</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2160964920820979</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2032257171328069</v>
+        <v>0.2005941015188517</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2317659211005183</v>
+        <v>0.2297620121859782</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1640</v>
@@ -5695,19 +5695,19 @@
         <v>1762642</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1684594</v>
+        <v>1690890</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1833316</v>
+        <v>1843560</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2528159538225934</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2416215629507612</v>
+        <v>0.2425245527654344</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2629528123714441</v>
+        <v>0.2644221155520695</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>750210</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>699394</v>
+        <v>697957</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>803870</v>
+        <v>802077</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2192372104727295</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2043868978575951</v>
+        <v>0.2039670666172479</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2349185033002293</v>
+        <v>0.234394655970628</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>550</v>
@@ -5745,19 +5745,19 @@
         <v>585720</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>538221</v>
+        <v>540786</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>629225</v>
+        <v>629041</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1649857480834109</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1516062647673027</v>
+        <v>0.1523286901107803</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1772401820103891</v>
+        <v>0.1771884665847837</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1254</v>
@@ -5766,19 +5766,19 @@
         <v>1335930</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1270588</v>
+        <v>1261922</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1401691</v>
+        <v>1398507</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.191612638737217</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1822406747000702</v>
+        <v>0.1809977203251776</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2010446974748991</v>
+        <v>0.200588125539408</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>914660</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>860744</v>
+        <v>863557</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>969007</v>
+        <v>966878</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2672951939455462</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2515389780771286</v>
+        <v>0.2523610287089968</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2831772067484624</v>
+        <v>0.2825551731338535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>964</v>
@@ -5816,19 +5816,19 @@
         <v>1036536</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>981156</v>
+        <v>983629</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1094185</v>
+        <v>1097132</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.291971801715296</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2763723393937465</v>
+        <v>0.2770689049578457</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3082102158361455</v>
+        <v>0.3090404261913629</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1822</v>
@@ -5837,19 +5837,19 @@
         <v>1951196</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1885414</v>
+        <v>1874022</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2038548</v>
+        <v>2026234</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2798603984857058</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2704252645545661</v>
+        <v>0.2687911928454075</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2923892705752685</v>
+        <v>0.2906229968578343</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>761568</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>709527</v>
+        <v>710196</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>814066</v>
+        <v>812083</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2225563411050633</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2073483770996945</v>
+        <v>0.2075436115242609</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2378982414614573</v>
+        <v>0.2373185213525295</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1070</v>
@@ -5887,19 +5887,19 @@
         <v>1160699</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1101966</v>
+        <v>1104701</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1216922</v>
+        <v>1221619</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3269459581191951</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3104020887509577</v>
+        <v>0.3111724229858172</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3427829971467137</v>
+        <v>0.3441060159088283</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1779</v>
@@ -5908,19 +5908,19 @@
         <v>1922267</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1841684</v>
+        <v>1848124</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2000656</v>
+        <v>1999344</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2757110089544839</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2641530581108729</v>
+        <v>0.2650766472154425</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2869543267953722</v>
+        <v>0.2867661313069983</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>109483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91852</v>
+        <v>91963</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127659</v>
+        <v>128788</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2551503332778667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2140609788681574</v>
+        <v>0.2143202603316976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2975085866689151</v>
+        <v>0.3001414384260032</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -6275,19 +6275,19 @@
         <v>87251</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72296</v>
+        <v>73448</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>104392</v>
+        <v>107237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2514050069364062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2083133981353109</v>
+        <v>0.2116324806076701</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3007943115737554</v>
+        <v>0.3089907933401861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -6296,19 +6296,19 @@
         <v>196734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>174027</v>
+        <v>174595</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223006</v>
+        <v>222684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2534756066830145</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2242192762492815</v>
+        <v>0.2249508513339395</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2873238111770282</v>
+        <v>0.2869092325059468</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>114801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>95841</v>
+        <v>96086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134170</v>
+        <v>133905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2675435314731129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2233583661193757</v>
+        <v>0.223928312758461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3126846539396146</v>
+        <v>0.3120660363580245</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -6346,19 +6346,19 @@
         <v>91242</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76133</v>
+        <v>76800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111163</v>
+        <v>109410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.262903873788501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2193698256356863</v>
+        <v>0.2212913513850565</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3203033707701157</v>
+        <v>0.3152528732721781</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>195</v>
@@ -6367,19 +6367,19 @@
         <v>206043</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>179702</v>
+        <v>181292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>228885</v>
+        <v>231115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2654689036818268</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2315305201528184</v>
+        <v>0.2335794614371373</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2948996691430215</v>
+        <v>0.2977725590408665</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>129670</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111309</v>
+        <v>110449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>149639</v>
+        <v>148468</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3021965636263153</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2594051987853997</v>
+        <v>0.2574014008493236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3487333386585604</v>
+        <v>0.346005975003869</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>102</v>
@@ -6417,19 +6417,19 @@
         <v>105401</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>88818</v>
+        <v>87859</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123182</v>
+        <v>123977</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3037005660311599</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2559184007339868</v>
+        <v>0.2531572675486803</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3549349394692797</v>
+        <v>0.3572247176594243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>220</v>
@@ -6438,19 +6438,19 @@
         <v>235071</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>209748</v>
+        <v>207182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>260806</v>
+        <v>258107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3028690798762965</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2702421847373248</v>
+        <v>0.2669369102720439</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3360271261265551</v>
+        <v>0.3325489508622549</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>75138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60377</v>
+        <v>60168</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92058</v>
+        <v>93779</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1751095716227052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1407093197667671</v>
+        <v>0.1402206705324767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2145421637618397</v>
+        <v>0.2185523541984337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>61</v>
@@ -6488,19 +6488,19 @@
         <v>63161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50508</v>
+        <v>48416</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78158</v>
+        <v>77385</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1819905532439329</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1455325617263523</v>
+        <v>0.1395042713881251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2252029612822372</v>
+        <v>0.2229770367412909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -6509,19 +6509,19 @@
         <v>138299</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116617</v>
+        <v>116423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>163640</v>
+        <v>161300</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1781864097588622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1502508074800622</v>
+        <v>0.1500007338723433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2108368119931575</v>
+        <v>0.2078211415699475</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>101272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82643</v>
+        <v>85049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>119546</v>
+        <v>119893</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2684653025931507</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2190791139682095</v>
+        <v>0.2254592599827474</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3169080959848517</v>
+        <v>0.3178280731406004</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>85</v>
@@ -6634,19 +6634,19 @@
         <v>89855</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>73109</v>
+        <v>73560</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107216</v>
+        <v>109251</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2413687951062983</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1963847466865898</v>
+        <v>0.1975973943263301</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2880043075543853</v>
+        <v>0.2934694823296921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>176</v>
@@ -6655,19 +6655,19 @@
         <v>191127</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>166389</v>
+        <v>167613</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>217643</v>
+        <v>218585</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2550065943077855</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2220002783892242</v>
+        <v>0.223633574911537</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2903845306909238</v>
+        <v>0.2916404950306051</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>101324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85108</v>
+        <v>83622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121034</v>
+        <v>119007</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2686030216687195</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2256157767971021</v>
+        <v>0.2216755565577845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3208531817046814</v>
+        <v>0.3154794690866295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -6705,19 +6705,19 @@
         <v>84862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69415</v>
+        <v>67555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102620</v>
+        <v>101415</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2279571740098547</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1864633276581212</v>
+        <v>0.1814652562212934</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2756586290324215</v>
+        <v>0.2724208170121397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -6726,19 +6726,19 @@
         <v>186187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163039</v>
+        <v>161908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212127</v>
+        <v>210024</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2484144196166844</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2175303716906675</v>
+        <v>0.2160210530621707</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2830247914471506</v>
+        <v>0.280218676211734</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>111011</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92142</v>
+        <v>93197</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129692</v>
+        <v>132372</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2942809271208993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2442617537832072</v>
+        <v>0.2470587049250207</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3438036099865467</v>
+        <v>0.3509086686304457</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -6776,19 +6776,19 @@
         <v>106973</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91614</v>
+        <v>90567</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125856</v>
+        <v>126281</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2873515884307888</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2460947160885346</v>
+        <v>0.2432819797302792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.338075727192078</v>
+        <v>0.3392152981945223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>206</v>
@@ -6797,19 +6797,19 @@
         <v>217984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195439</v>
+        <v>195918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>245333</v>
+        <v>246550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2908391570667348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2607585179325703</v>
+        <v>0.2613985961516188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3273292520014483</v>
+        <v>0.3289525182592825</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>63620</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50813</v>
+        <v>50201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>78767</v>
+        <v>79334</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1686507486172306</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1347004794804243</v>
+        <v>0.1330787881656072</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2088045240222711</v>
+        <v>0.2103072973623839</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -6847,19 +6847,19 @@
         <v>90582</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>74959</v>
+        <v>74630</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109178</v>
+        <v>107653</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2433224424530581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2013545066117602</v>
+        <v>0.2004716446710947</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2932733868969453</v>
+        <v>0.2891777108349882</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -6868,19 +6868,19 @@
         <v>154202</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132900</v>
+        <v>132656</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177396</v>
+        <v>175716</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2057398290087953</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1773187711698952</v>
+        <v>0.1769920237924949</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2366854003762313</v>
+        <v>0.2344445802410659</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>139578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120571</v>
+        <v>120037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159400</v>
+        <v>160358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2674345447644423</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2310176727180185</v>
+        <v>0.2299944961136229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3054133712060088</v>
+        <v>0.3072496148559344</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -6993,19 +6993,19 @@
         <v>35481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26200</v>
+        <v>25808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47627</v>
+        <v>46103</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2135823764746715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1577123912376601</v>
+        <v>0.1553523556101905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2866956273781834</v>
+        <v>0.2775234372961331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -7014,19 +7014,19 @@
         <v>175059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153285</v>
+        <v>153717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>197866</v>
+        <v>200126</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2544322210917544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2227858985376722</v>
+        <v>0.2234146875785611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2875808899955784</v>
+        <v>0.2908656256352224</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>117725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98437</v>
+        <v>99914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>137579</v>
+        <v>136371</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2255638339255251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1886078620234522</v>
+        <v>0.1914375863103894</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2636047300987247</v>
+        <v>0.2612902097038829</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -7064,19 +7064,19 @@
         <v>29879</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21176</v>
+        <v>21206</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41673</v>
+        <v>41092</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1798625226289207</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1274734610371427</v>
+        <v>0.1276506617288709</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2508542524506581</v>
+        <v>0.2473573404222501</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>138</v>
@@ -7085,19 +7085,19 @@
         <v>147604</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>126227</v>
+        <v>126071</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>170555</v>
+        <v>168853</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2145294919367813</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1834598667221742</v>
+        <v>0.1832336197124793</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2478863933753499</v>
+        <v>0.2454134677398986</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>152246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>130722</v>
+        <v>133826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173121</v>
+        <v>175763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2917065138744988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2504667814128667</v>
+        <v>0.2564139812510774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.331704441689868</v>
+        <v>0.3367662145981073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -7135,19 +7135,19 @@
         <v>49126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>37514</v>
+        <v>38124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>63284</v>
+        <v>62625</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2957216764555128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2258218667955491</v>
+        <v>0.2294952115662316</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.380947529101516</v>
+        <v>0.3769810667025431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -7156,19 +7156,19 @@
         <v>201372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>177303</v>
+        <v>177948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224548</v>
+        <v>226668</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2926759538271464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2576948669069644</v>
+        <v>0.2586322584673488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3263601601755015</v>
+        <v>0.3294423583939065</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>112366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>96022</v>
+        <v>94453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133956</v>
+        <v>131536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2152951074355339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1839811960205293</v>
+        <v>0.1809751541112861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2566632317539302</v>
+        <v>0.2520258905923918</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -7206,19 +7206,19 @@
         <v>51637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40047</v>
+        <v>40751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64668</v>
+        <v>66206</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3108334244408951</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2410691494792901</v>
+        <v>0.2453077706987549</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3892759977648883</v>
+        <v>0.3985386820409392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>151</v>
@@ -7227,19 +7227,19 @@
         <v>164002</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>141600</v>
+        <v>142118</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>185955</v>
+        <v>187189</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2383623331443179</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2058029241667214</v>
+        <v>0.2065554930424319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2702692589456937</v>
+        <v>0.2720629802114642</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>320266</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>288178</v>
+        <v>290298</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>353569</v>
+        <v>349372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2785800428504684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2506681790140077</v>
+        <v>0.2525123255550632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3075479587066756</v>
+        <v>0.3038977516939632</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>191</v>
@@ -7352,19 +7352,19 @@
         <v>200268</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>174700</v>
+        <v>175724</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225124</v>
+        <v>226476</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2424915850513676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2115335263377347</v>
+        <v>0.2127725717820855</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2725875760474188</v>
+        <v>0.2742246918186494</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>494</v>
@@ -7373,19 +7373,19 @@
         <v>520534</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>481271</v>
+        <v>485175</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>556967</v>
+        <v>563141</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2634930413897881</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2436181886174953</v>
+        <v>0.2455944143078973</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.281935193534975</v>
+        <v>0.2850603769053883</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>249993</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222940</v>
+        <v>223127</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>278008</v>
+        <v>281264</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2174538772828731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1939222844556117</v>
+        <v>0.1940845020834118</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2418223371303996</v>
+        <v>0.244654539689427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>165</v>
@@ -7423,19 +7423,19 @@
         <v>168857</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>146052</v>
+        <v>145378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>191910</v>
+        <v>191566</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2044578821373675</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1768447763530805</v>
+        <v>0.176028638199734</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.23237152336483</v>
+        <v>0.2319544965917495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -7444,19 +7444,19 @@
         <v>418850</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>380654</v>
+        <v>384880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>456383</v>
+        <v>455861</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2120208216828047</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1926860576270868</v>
+        <v>0.1948253916597577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2310197131102947</v>
+        <v>0.2307556996620387</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>350997</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>322425</v>
+        <v>318736</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>384534</v>
+        <v>383225</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3053110453372491</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2804578999634151</v>
+        <v>0.2772486148328966</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3344828570496257</v>
+        <v>0.3333437447265028</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>234</v>
@@ -7494,19 +7494,19 @@
         <v>237800</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>213374</v>
+        <v>211950</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>263123</v>
+        <v>265604</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2879366779897296</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2583609059945651</v>
+        <v>0.2566368319682633</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3185990869224954</v>
+        <v>0.3216023533320556</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>571</v>
@@ -7515,19 +7515,19 @@
         <v>588797</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>549958</v>
+        <v>549462</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>632675</v>
+        <v>629654</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.298047584343442</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2783871576165192</v>
+        <v>0.2781360232186583</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3202583852838898</v>
+        <v>0.3187291098283047</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>228381</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>202601</v>
+        <v>199874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>256902</v>
+        <v>256908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1986550345294094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1762303270855616</v>
+        <v>0.1738579440379491</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.223463450337997</v>
+        <v>0.2234686324963922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -7565,19 +7565,19 @@
         <v>218951</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>195139</v>
+        <v>192687</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>244935</v>
+        <v>246514</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2651138548215353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2362814895966842</v>
+        <v>0.2333118022358092</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2965754327905589</v>
+        <v>0.2984880797695408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>429</v>
@@ -7586,19 +7586,19 @@
         <v>447333</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>412249</v>
+        <v>409014</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>487451</v>
+        <v>487081</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2264385525839653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.208679573918587</v>
+        <v>0.2070419289219609</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2467466607529692</v>
+        <v>0.2465590088622562</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>155860</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135765</v>
+        <v>134626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>180618</v>
+        <v>178519</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2511018375508765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2187261275649621</v>
+        <v>0.2168922905489953</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2909878111230749</v>
+        <v>0.2876067746652936</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -7711,19 +7711,19 @@
         <v>145194</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124296</v>
+        <v>125026</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>169480</v>
+        <v>170095</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1966751244308261</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1683677729327236</v>
+        <v>0.1693554516211864</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2295714176419467</v>
+        <v>0.2304045986229212</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>283</v>
@@ -7732,19 +7732,19 @@
         <v>301055</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>266149</v>
+        <v>271533</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>331605</v>
+        <v>333853</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2215347444660349</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1958489433639146</v>
+        <v>0.1998106726453273</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2440152892848337</v>
+        <v>0.2456697633067949</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>150997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>130541</v>
+        <v>128610</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>171335</v>
+        <v>173226</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2432659407295541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2103111528525686</v>
+        <v>0.2071996099605528</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.276032743825021</v>
+        <v>0.2790787827183028</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -7782,19 +7782,19 @@
         <v>127925</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>107496</v>
+        <v>106161</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150690</v>
+        <v>148616</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1732830476660685</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1456106892453631</v>
+        <v>0.1438016202325432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2041195441995899</v>
+        <v>0.2013103711981485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>265</v>
@@ -7803,19 +7803,19 @@
         <v>278922</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>249425</v>
+        <v>248810</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>309741</v>
+        <v>309108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2052480154326411</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1835426682078011</v>
+        <v>0.1830898480065381</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2279266698478817</v>
+        <v>0.2274610615094919</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>185335</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>164188</v>
+        <v>164471</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>207274</v>
+        <v>209108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2985880894871657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2645181582380775</v>
+        <v>0.2649739862779182</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3339320015153732</v>
+        <v>0.3368880553487644</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>200</v>
@@ -7853,19 +7853,19 @@
         <v>207035</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>182625</v>
+        <v>183464</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>232278</v>
+        <v>231964</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2804424641941675</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2473782031456256</v>
+        <v>0.2485135499683482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3146358892004515</v>
+        <v>0.3142109592413253</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>379</v>
@@ -7874,19 +7874,19 @@
         <v>392370</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>360819</v>
+        <v>356693</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>428828</v>
+        <v>427348</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2887305514995725</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.265513093495735</v>
+        <v>0.2624770505914185</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3155580995472249</v>
+        <v>0.3144692714360085</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>128514</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>108763</v>
+        <v>109055</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>149461</v>
+        <v>152336</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2070441322324037</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1752251836183777</v>
+        <v>0.1756954687089236</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2407913629058502</v>
+        <v>0.2454236782445255</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>243</v>
@@ -7924,19 +7924,19 @@
         <v>258090</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>232385</v>
+        <v>232693</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>284045</v>
+        <v>283978</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3495993637089379</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3147801483384672</v>
+        <v>0.3151976896662484</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3847570100145059</v>
+        <v>0.384666258349361</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>369</v>
@@ -7945,19 +7945,19 @@
         <v>386603</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>351895</v>
+        <v>355651</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>419709</v>
+        <v>425140</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2844866886017515</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2589460241108367</v>
+        <v>0.2617101393271696</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3088480699178201</v>
+        <v>0.3128444238862704</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>130057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>112819</v>
+        <v>113562</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>149151</v>
+        <v>147810</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4529324304778529</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.392898441019706</v>
+        <v>0.3954879265051843</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5194259443574423</v>
+        <v>0.514756658345301</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>284</v>
@@ -8070,19 +8070,19 @@
         <v>309878</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>278671</v>
+        <v>277138</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>345066</v>
+        <v>340885</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2863870000339374</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2575461757199675</v>
+        <v>0.2561288967796897</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3189074157580881</v>
+        <v>0.3150431978082003</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>405</v>
@@ -8091,19 +8091,19 @@
         <v>439935</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>402693</v>
+        <v>407463</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>474395</v>
+        <v>477837</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3213152501369815</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2941147762789479</v>
+        <v>0.2975985963908189</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3464836056894833</v>
+        <v>0.3489976051320605</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>63913</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>50214</v>
+        <v>50046</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>78804</v>
+        <v>78633</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2225809915549759</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1748729709708265</v>
+        <v>0.174288388610348</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2744409027791164</v>
+        <v>0.273843087548217</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>206</v>
@@ -8141,19 +8141,19 @@
         <v>221701</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>195470</v>
+        <v>194887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>249330</v>
+        <v>251140</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2048948556470991</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1806515804956424</v>
+        <v>0.1801128450615075</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2304293573491654</v>
+        <v>0.2321016435258161</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>268</v>
@@ -8162,19 +8162,19 @@
         <v>285614</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>256129</v>
+        <v>256665</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>318986</v>
+        <v>317823</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2086040284337687</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.187069157352297</v>
+        <v>0.1874599364571752</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2329779126665064</v>
+        <v>0.2321284191812167</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>62016</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>49393</v>
+        <v>47840</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>77384</v>
+        <v>76745</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2159748044608711</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1720128758886234</v>
+        <v>0.1666049058158505</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2694937353083789</v>
+        <v>0.2672682219117396</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>266</v>
@@ -8212,19 +8212,19 @@
         <v>286216</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>258073</v>
+        <v>259485</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>317024</v>
+        <v>315515</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2645189979753604</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2385095239705887</v>
+        <v>0.239813777044778</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2929911224396028</v>
+        <v>0.2915964758327317</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>325</v>
@@ -8233,19 +8233,19 @@
         <v>348232</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>315343</v>
+        <v>315916</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>382555</v>
+        <v>382683</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2543382099008678</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2303172503491527</v>
+        <v>0.2307351479182178</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2794063515057247</v>
+        <v>0.2795002733490688</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>31159</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21683</v>
+        <v>22133</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>42898</v>
+        <v>43191</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1085117735063001</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07551301318252968</v>
+        <v>0.07707798352675777</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1493963009762895</v>
+        <v>0.1504157628180312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>236</v>
@@ -8283,19 +8283,19 @@
         <v>264230</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>234359</v>
+        <v>237752</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>294544</v>
+        <v>294778</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2441991463436031</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2165925523985255</v>
+        <v>0.2197284334199368</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2722151422520387</v>
+        <v>0.2724314462834112</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>266</v>
@@ -8304,19 +8304,19 @@
         <v>295388</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>262822</v>
+        <v>264593</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>329219</v>
+        <v>325487</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.215742511528382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1919571455466854</v>
+        <v>0.1932505704171696</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2404515645654106</v>
+        <v>0.2377258700026514</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>956517</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>899358</v>
+        <v>903986</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1004895</v>
+        <v>1007360</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2825149519575705</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2656325360225767</v>
+        <v>0.2669993858663708</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2968037032721194</v>
+        <v>0.2975317616362783</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>811</v>
@@ -8429,19 +8429,19 @@
         <v>867927</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>820894</v>
+        <v>815567</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>925966</v>
+        <v>918573</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2457606955137074</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2324429036244156</v>
+        <v>0.2309343552938355</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2621947153142453</v>
+        <v>0.2601012721104959</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1714</v>
@@ -8450,19 +8450,19 @@
         <v>1824445</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1751950</v>
+        <v>1752772</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1897747</v>
+        <v>1902138</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2637502834124134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2532701082080899</v>
+        <v>0.2533889189696236</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.27434722133971</v>
+        <v>0.2749820515841492</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>798753</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>748454</v>
+        <v>748687</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>848433</v>
+        <v>850417</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2359180442882165</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2210618504729477</v>
+        <v>0.2211305547891342</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2505913412856443</v>
+        <v>0.2511775306886242</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>690</v>
@@ -8500,19 +8500,19 @@
         <v>724467</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>677297</v>
+        <v>678612</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>770707</v>
+        <v>777091</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2051387247925118</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1917820636964896</v>
+        <v>0.1921544926799227</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2182319945314044</v>
+        <v>0.2200396112770351</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1452</v>
@@ -8521,19 +8521,19 @@
         <v>1523220</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1452037</v>
+        <v>1449795</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1587793</v>
+        <v>1598132</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2202038445120753</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2099132690726484</v>
+        <v>0.2095892050723056</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2295388626248647</v>
+        <v>0.2310334693516941</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>991275</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>940236</v>
+        <v>940822</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1052900</v>
+        <v>1047558</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2927810471435233</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2777061888958454</v>
+        <v>0.2778793087790397</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.310982430615674</v>
+        <v>0.3094047173944889</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>948</v>
@@ -8571,19 +8571,19 @@
         <v>992551</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>940814</v>
+        <v>939493</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1046394</v>
+        <v>1051320</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2810489475274243</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2663991499433226</v>
+        <v>0.266025123523699</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2962950463923311</v>
+        <v>0.2976897220195583</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1895</v>
@@ -8592,19 +8592,19 @@
         <v>1983827</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1903535</v>
+        <v>1902763</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2056637</v>
+        <v>2057042</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.286791292978013</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2751839776351563</v>
+        <v>0.2750724063130743</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2973171137629592</v>
+        <v>0.2973757097991541</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>639177</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>597670</v>
+        <v>590565</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>692231</v>
+        <v>688172</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1887859566106896</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1765266985959278</v>
+        <v>0.1744282200259062</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2044558979072571</v>
+        <v>0.2032570569261427</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>877</v>
@@ -8642,19 +8642,19 @@
         <v>946650</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>893383</v>
+        <v>893584</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>998954</v>
+        <v>997895</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2680516321663566</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.252968708878776</v>
+        <v>0.2530255452654828</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2828618757641689</v>
+        <v>0.282562085304589</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1489</v>
@@ -8663,19 +8663,19 @@
         <v>1585827</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1517567</v>
+        <v>1508042</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1659529</v>
+        <v>1658401</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2292545790974984</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.219386665087835</v>
+        <v>0.2180096437265874</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.23990928385421</v>
+        <v>0.2397462019720946</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>156536</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134821</v>
+        <v>130852</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179091</v>
+        <v>177561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2855631514686501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2459502100915328</v>
+        <v>0.2387099907411428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3267105759078183</v>
+        <v>0.3239186554391647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>202</v>
@@ -9030,19 +9030,19 @@
         <v>147494</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131646</v>
+        <v>129130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166163</v>
+        <v>165676</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.302973637778529</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2704198009260973</v>
+        <v>0.2652518986989039</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3413231229019498</v>
+        <v>0.3403215466584762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>361</v>
@@ -9051,19 +9051,19 @@
         <v>304030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273247</v>
+        <v>275592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>333210</v>
+        <v>333102</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2937524326532162</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.264010036834376</v>
+        <v>0.2662759656131724</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3219458128434481</v>
+        <v>0.3218420462787021</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>163578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140660</v>
+        <v>142530</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186666</v>
+        <v>188550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2984092833259134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2566010946719037</v>
+        <v>0.2600123007600647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3405286586621044</v>
+        <v>0.3439654559786678</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -9101,19 +9101,19 @@
         <v>118631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104189</v>
+        <v>104398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>137446</v>
+        <v>136567</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2436857537224982</v>
+        <v>0.2436857537224981</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2140185581824302</v>
+        <v>0.2144475417901427</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2823334764234793</v>
+        <v>0.2805279678476453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>320</v>
@@ -9122,19 +9122,19 @@
         <v>282209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252106</v>
+        <v>251068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>309044</v>
+        <v>310694</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2726692572658712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.243583747629811</v>
+        <v>0.2425806692382587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2985974024742563</v>
+        <v>0.300191345836174</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>130149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>111498</v>
+        <v>110900</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151380</v>
+        <v>151628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.237426645048582</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2034020895442594</v>
+        <v>0.2023106912226083</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.276158093695746</v>
+        <v>0.2766101582001668</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -9172,19 +9172,19 @@
         <v>106250</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>91450</v>
+        <v>91520</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122236</v>
+        <v>121029</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.218251993898585</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1878517912100814</v>
+        <v>0.1879958212599506</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2510894199753199</v>
+        <v>0.2486102715987647</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>287</v>
@@ -9193,19 +9193,19 @@
         <v>236399</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>213017</v>
+        <v>213225</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>263871</v>
+        <v>264125</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2284075626927842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2058156360743466</v>
+        <v>0.2060166573272887</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2549506024610437</v>
+        <v>0.2551969247180347</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>97903</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80433</v>
+        <v>82085</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117628</v>
+        <v>118554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1786009201568545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1467314860359203</v>
+        <v>0.1497444549582806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2145851062712264</v>
+        <v>0.2162744819808306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -9243,19 +9243,19 @@
         <v>114446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99459</v>
+        <v>97963</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131947</v>
+        <v>131216</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2350886146003879</v>
+        <v>0.2350886146003878</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2043035217601537</v>
+        <v>0.2012290930572854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.271038667496702</v>
+        <v>0.2695369718421081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>268</v>
@@ -9264,19 +9264,19 @@
         <v>212349</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188624</v>
+        <v>187600</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237681</v>
+        <v>238830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2051707473881285</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1822476096702471</v>
+        <v>0.1812587002078737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2296468091095961</v>
+        <v>0.2307568982100491</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>179655</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>157823</v>
+        <v>157008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>202983</v>
+        <v>202780</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3725674746293562</v>
+        <v>0.3725674746293563</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3272920916904813</v>
+        <v>0.3256031192868841</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4209447534741207</v>
+        <v>0.4205229021064754</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>147</v>
@@ -9389,19 +9389,19 @@
         <v>109250</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>94547</v>
+        <v>93753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>126088</v>
+        <v>124992</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2585882579375952</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2237864048918891</v>
+        <v>0.2219068388773839</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2984427224782301</v>
+        <v>0.2958490341036144</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>310</v>
@@ -9410,19 +9410,19 @@
         <v>288905</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>261121</v>
+        <v>260371</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>317383</v>
+        <v>317205</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3193399351051254</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2886285619530181</v>
+        <v>0.2877999691850035</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3508180472948285</v>
+        <v>0.3506214779891955</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>126613</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107645</v>
+        <v>107526</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>147588</v>
+        <v>147351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2625696146105113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2232332301077355</v>
+        <v>0.2229865046168947</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3060681040072052</v>
+        <v>0.3055748567073975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -9460,19 +9460,19 @@
         <v>104373</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>87974</v>
+        <v>90198</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118689</v>
+        <v>121760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2470447494540929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2082286838767443</v>
+        <v>0.2134938701871826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.280929572571536</v>
+        <v>0.288198209804612</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>267</v>
@@ -9481,19 +9481,19 @@
         <v>230986</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205627</v>
+        <v>206032</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258069</v>
+        <v>256582</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2553196053745613</v>
+        <v>0.2553196053745612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2272890382217217</v>
+        <v>0.2277372028084703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2852552192494152</v>
+        <v>0.2836120129915651</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>98842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81465</v>
+        <v>81954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>118175</v>
+        <v>115809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.204978005304893</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.168942298839761</v>
+        <v>0.1699557795976649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.245069742739451</v>
+        <v>0.2401635579235829</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -9531,19 +9531,19 @@
         <v>102222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87970</v>
+        <v>87418</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117618</v>
+        <v>118363</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2419530983447782</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2082188840916802</v>
+        <v>0.2069143858332892</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2783952036305313</v>
+        <v>0.2801595350546886</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -9552,19 +9552,19 @@
         <v>201064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>178253</v>
+        <v>180772</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>226099</v>
+        <v>224688</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.222245128937748</v>
+        <v>0.2222451289377479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1970316207312248</v>
+        <v>0.199815339124206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2499176131954624</v>
+        <v>0.248358105661088</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>77098</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62077</v>
+        <v>63099</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95380</v>
+        <v>96846</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1598849054552394</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1287348080210547</v>
+        <v>0.1308536801969739</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1977985045266154</v>
+        <v>0.2008390602248563</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>149</v>
@@ -9602,19 +9602,19 @@
         <v>106641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>90105</v>
+        <v>91223</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>122420</v>
+        <v>121432</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2524138942635337</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2132727331649636</v>
+        <v>0.2159202614760927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.289759998128033</v>
+        <v>0.2874214713596792</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -9623,19 +9623,19 @@
         <v>183739</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160977</v>
+        <v>161507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>208355</v>
+        <v>208242</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2030953305825653</v>
+        <v>0.2030953305825652</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1779357850162874</v>
+        <v>0.1785209834106136</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2303039037423704</v>
+        <v>0.2301798936127319</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>148719</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128557</v>
+        <v>128144</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>171837</v>
+        <v>171210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3173217584601993</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2743021990088488</v>
+        <v>0.2734220435712779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3666494511185938</v>
+        <v>0.3653119618480511</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -9748,19 +9748,19 @@
         <v>47781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39120</v>
+        <v>39126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59002</v>
+        <v>58618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2562707048746656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2098157775119759</v>
+        <v>0.2098498392420708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3164502329634853</v>
+        <v>0.3143923007032741</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>213</v>
@@ -9769,19 +9769,19 @@
         <v>196500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>174441</v>
+        <v>175389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220243</v>
+        <v>220837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2999463517816921</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2662737617965816</v>
+        <v>0.2677211027771874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.336188918713882</v>
+        <v>0.3370944945677582</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>109901</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>92356</v>
+        <v>92129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>129872</v>
+        <v>128966</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2344968912285496</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1970615980316569</v>
+        <v>0.1965757012945691</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2771091859240274</v>
+        <v>0.2751763782788404</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>58</v>
@@ -9819,19 +9819,19 @@
         <v>37621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28996</v>
+        <v>29823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>48460</v>
+        <v>48369</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2017752611190018</v>
+        <v>0.2017752611190017</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1555196357367705</v>
+        <v>0.1599536351902773</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2599124221765342</v>
+        <v>0.2594233501084292</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>170</v>
@@ -9840,19 +9840,19 @@
         <v>147522</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>127131</v>
+        <v>129795</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>168632</v>
+        <v>172864</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2251841669273951</v>
+        <v>0.2251841669273952</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.194057959125082</v>
+        <v>0.1981247526024326</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.257407257582488</v>
+        <v>0.263866749149351</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>101052</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85965</v>
+        <v>82636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>120412</v>
+        <v>119197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2156145955629279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1834247054602413</v>
+        <v>0.1763202622029401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2569229155823264</v>
+        <v>0.2543305052644991</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -9890,19 +9890,19 @@
         <v>53260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43211</v>
+        <v>42263</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65225</v>
+        <v>64498</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2856529391310504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2317574760051644</v>
+        <v>0.2266736976578469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3498301654365731</v>
+        <v>0.3459304950801082</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>187</v>
@@ -9911,19 +9911,19 @@
         <v>154312</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134165</v>
+        <v>134335</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177585</v>
+        <v>177234</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2355478257221777</v>
+        <v>0.2355478257221778</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.204795880266721</v>
+        <v>0.2050551097784258</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2710729637398369</v>
+        <v>0.2705380517207229</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>108997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>90760</v>
+        <v>91297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127586</v>
+        <v>128570</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2325667547483233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1936544622887107</v>
+        <v>0.1948009993299445</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2722303183932583</v>
+        <v>0.2743308999666527</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -9961,19 +9961,19 @@
         <v>47787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38643</v>
+        <v>39965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57927</v>
+        <v>61108</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2563010948752823</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2072563555552022</v>
+        <v>0.2143506677709236</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3106869224278606</v>
+        <v>0.3277440611889884</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -9982,19 +9982,19 @@
         <v>156784</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>138311</v>
+        <v>136644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179632</v>
+        <v>177778</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2393216555687351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2111231801081696</v>
+        <v>0.2085798522936315</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2741983484450533</v>
+        <v>0.2713682460474628</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>353485</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>322578</v>
+        <v>318867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>394748</v>
+        <v>387370</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3138520739979406</v>
+        <v>0.3138520739979407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2864100436353837</v>
+        <v>0.2831149696568599</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.350488292005223</v>
+        <v>0.3439379308315065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>317</v>
@@ -10107,19 +10107,19 @@
         <v>242030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>219879</v>
+        <v>219430</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>268471</v>
+        <v>266012</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2818000778032331</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2560096774604178</v>
+        <v>0.2554863106801231</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.312585433178452</v>
+        <v>0.3097223999798109</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>642</v>
@@ -10128,19 +10128,19 @@
         <v>595515</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>553757</v>
+        <v>551277</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>638767</v>
+        <v>635245</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2999848455097213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2789495355077629</v>
+        <v>0.2777000603381875</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3217724610474559</v>
+        <v>0.3199984329507787</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>285089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>254734</v>
+        <v>248928</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>321665</v>
+        <v>314081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2531245157584201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.226173034703812</v>
+        <v>0.221017963314771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2855994829785474</v>
+        <v>0.2788659308102671</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>263</v>
@@ -10178,19 +10178,19 @@
         <v>191995</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170525</v>
+        <v>170480</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214472</v>
+        <v>213023</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2235439890664412</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1985450602767183</v>
+        <v>0.1984933865744805</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2497133500600732</v>
+        <v>0.2480262724119494</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>539</v>
@@ -10199,19 +10199,19 @@
         <v>477085</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>439838</v>
+        <v>440212</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>520227</v>
+        <v>518432</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2403265633330021</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2215642162061956</v>
+        <v>0.2217522522314562</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2620592941519783</v>
+        <v>0.2611551403139916</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>253069</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>222192</v>
+        <v>224591</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>287328</v>
+        <v>284144</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2246946861981232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1972791571888134</v>
+        <v>0.1994096637638799</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2551121386330317</v>
+        <v>0.2522851195264611</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>309</v>
@@ -10249,19 +10249,19 @@
         <v>206756</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>186278</v>
+        <v>186192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>229086</v>
+        <v>229964</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2407299080957038</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2168872398857708</v>
+        <v>0.2167868324066181</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2667287679495894</v>
+        <v>0.2677518438400457</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>554</v>
@@ -10270,19 +10270,19 @@
         <v>459825</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>423704</v>
+        <v>424790</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>495958</v>
+        <v>498781</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2316322910999285</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2134368449916118</v>
+        <v>0.2139837369281822</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2498340238238381</v>
+        <v>0.251255770021151</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>234636</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203975</v>
+        <v>209556</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258469</v>
+        <v>264409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2083287240455161</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.18110547678561</v>
+        <v>0.1860601422646454</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2294887471235705</v>
+        <v>0.2347629906710841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>336</v>
@@ -10320,19 +10320,19 @@
         <v>218090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>194793</v>
+        <v>197248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>239470</v>
+        <v>239612</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.253926025034622</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.226801037584232</v>
+        <v>0.2296594750191304</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2788197507012415</v>
+        <v>0.278984736589227</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>602</v>
@@ -10341,19 +10341,19 @@
         <v>452726</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>418387</v>
+        <v>418696</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>486116</v>
+        <v>487211</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2280563000573482</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2107580344234995</v>
+        <v>0.2109137938284804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2448762776350054</v>
+        <v>0.2454275932699445</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>169420</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>146729</v>
+        <v>148457</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>193916</v>
+        <v>193070</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3009581899482706</v>
+        <v>0.3009581899482707</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2606500686450747</v>
+        <v>0.2637199203860792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3444740311944279</v>
+        <v>0.3429700922892934</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>267</v>
@@ -10466,19 +10466,19 @@
         <v>180386</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160318</v>
+        <v>161488</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>200281</v>
+        <v>205306</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2183957827090832</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1940991539647581</v>
+        <v>0.1955157153130921</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2424837461217897</v>
+        <v>0.2485673625343768</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>422</v>
@@ -10487,19 +10487,19 @@
         <v>349805</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>318506</v>
+        <v>317944</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>384537</v>
+        <v>381224</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2518593472626449</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2293240478277966</v>
+        <v>0.2289194008675449</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2768663626255788</v>
+        <v>0.2744808014652296</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>138412</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117499</v>
+        <v>116258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>162562</v>
+        <v>160522</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2458753060226137</v>
+        <v>0.2458753060226138</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2087263430677947</v>
+        <v>0.2065208560167934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2887749329239039</v>
+        <v>0.2851523070316315</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>285</v>
@@ -10537,19 +10537,19 @@
         <v>191698</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>173552</v>
+        <v>171296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214310</v>
+        <v>212361</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2320920652539188</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2101219885001888</v>
+        <v>0.2073912987368507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2594691843876722</v>
+        <v>0.257109161577842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>412</v>
@@ -10558,19 +10558,19 @@
         <v>330110</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>301768</v>
+        <v>296382</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>362097</v>
+        <v>361589</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2376785831698062</v>
+        <v>0.2376785831698061</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2172724009074522</v>
+        <v>0.2133946361303506</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2607094390934249</v>
+        <v>0.2603434932593224</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>133212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>111187</v>
+        <v>110681</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156439</v>
+        <v>154207</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2366375855832673</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1975135102041753</v>
+        <v>0.1966145437033956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2778992404369214</v>
+        <v>0.2739339718455152</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>287</v>
@@ -10608,19 +10608,19 @@
         <v>185078</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>164985</v>
+        <v>165035</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>205694</v>
+        <v>205155</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2240773419756722</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.199750324275247</v>
+        <v>0.1998106566106134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2490369861658469</v>
+        <v>0.2483846832257796</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>418</v>
@@ -10629,19 +10629,19 @@
         <v>318290</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289771</v>
+        <v>292544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>349136</v>
+        <v>349249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2291681640195784</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2086344085574763</v>
+        <v>0.210631412700625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2513775183529152</v>
+        <v>0.2514585531298408</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>121892</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>101581</v>
+        <v>102017</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>141687</v>
+        <v>142701</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2165289184458483</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1804491270643703</v>
+        <v>0.1812228466144375</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2516936089076627</v>
+        <v>0.2534939857218548</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>443</v>
@@ -10679,19 +10679,19 @@
         <v>268795</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>247868</v>
+        <v>248361</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>292678</v>
+        <v>290998</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3254348100613259</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3000975848443433</v>
+        <v>0.3006942668295734</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3543504828376692</v>
+        <v>0.3523157242746612</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>573</v>
@@ -10700,19 +10700,19 @@
         <v>390687</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>359969</v>
+        <v>361934</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>420695</v>
+        <v>423184</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2812939055479705</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2591769864109812</v>
+        <v>0.2605916893421101</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3028996207886427</v>
+        <v>0.3046916935684111</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>108165</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>83011</v>
+        <v>83425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>133660</v>
+        <v>132755</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4559533019474696</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3499216755675342</v>
+        <v>0.351667072994299</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5634261598433926</v>
+        <v>0.5596112859644807</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>288</v>
@@ -10825,19 +10825,19 @@
         <v>234535</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>207032</v>
+        <v>209564</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>259861</v>
+        <v>260698</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2808179067099768</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2478877957544564</v>
+        <v>0.2509193074273831</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3111417739452222</v>
+        <v>0.3121440851375955</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>333</v>
@@ -10846,19 +10846,19 @@
         <v>342699</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>304939</v>
+        <v>307143</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>378693</v>
+        <v>379245</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3195595300610624</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2843490352155343</v>
+        <v>0.2864036472842696</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3531229010394565</v>
+        <v>0.3536376944406888</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>60537</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43229</v>
+        <v>40453</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>83613</v>
+        <v>81889</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2551837088669571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1822243683181941</v>
+        <v>0.170524014095008</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3524603810739945</v>
+        <v>0.3451895042412519</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>238</v>
@@ -10896,19 +10896,19 @@
         <v>178847</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>158429</v>
+        <v>156425</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>201807</v>
+        <v>203905</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2141408123286418</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1896931868430651</v>
+        <v>0.1872937492668482</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2416314543049562</v>
+        <v>0.2441432108050537</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>265</v>
@@ -10917,19 +10917,19 @@
         <v>239384</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>211546</v>
+        <v>209381</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>274062</v>
+        <v>269663</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2232198933263394</v>
+        <v>0.2232198933263395</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1972620609567169</v>
+        <v>0.1952432562947505</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2555570474383415</v>
+        <v>0.2514548438840816</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>40001</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23072</v>
+        <v>23479</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>59954</v>
+        <v>61953</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1686176562286482</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09725701037267814</v>
+        <v>0.09897292172398645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2527293014392168</v>
+        <v>0.2611558737866456</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>260</v>
@@ -10967,19 +10967,19 @@
         <v>184524</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>161576</v>
+        <v>161506</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>208960</v>
+        <v>208459</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2209378410841174</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1934619271307317</v>
+        <v>0.193378287658959</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2501967079158793</v>
+        <v>0.2495961144909563</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>278</v>
@@ -10988,19 +10988,19 @@
         <v>224525</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>196524</v>
+        <v>196759</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>256001</v>
+        <v>256179</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2093641161236028</v>
+        <v>0.2093641161236029</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1832539633233038</v>
+        <v>0.1834734171868367</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2387155243637488</v>
+        <v>0.2388806971165936</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>28526</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>17844</v>
+        <v>16746</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44810</v>
+        <v>44165</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.120245332956925</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07521941457379751</v>
+        <v>0.07059216421452709</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1888920111180065</v>
+        <v>0.1861703685106076</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>358</v>
@@ -11038,19 +11038,19 @@
         <v>237279</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213264</v>
+        <v>213425</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>261885</v>
+        <v>262713</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.284103439877264</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2553494588229922</v>
+        <v>0.2555430644168032</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3135652420153724</v>
+        <v>0.3145568178548931</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>380</v>
@@ -11059,19 +11059,19 @@
         <v>265804</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>237342</v>
+        <v>237757</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>295612</v>
+        <v>296015</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2478564604889953</v>
+        <v>0.2478564604889954</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2213161762719972</v>
+        <v>0.2217031884911049</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2756516167414421</v>
+        <v>0.276027581287858</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>1115979</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1059700</v>
+        <v>1050218</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1184738</v>
+        <v>1178464</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3257873424042182</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3093578030414307</v>
+        <v>0.3065897718347926</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3458599556087824</v>
+        <v>0.3440285802823122</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1293</v>
@@ -11184,19 +11184,19 @@
         <v>961476</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>914859</v>
+        <v>915735</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1010195</v>
+        <v>1013005</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2659117933493279</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2530192605079544</v>
+        <v>0.2532615296680211</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2793859361280696</v>
+        <v>0.2801631612036996</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2281</v>
@@ -11205,19 +11205,19 @@
         <v>2077455</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2001412</v>
+        <v>1996957</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2153802</v>
+        <v>2156362</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2950405190216165</v>
+        <v>0.2950405190216164</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2842409258705521</v>
+        <v>0.2836082204708713</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3058833138792764</v>
+        <v>0.3062469221308387</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>884130</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>828907</v>
+        <v>828834</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>944089</v>
+        <v>942692</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.2581035288989752</v>
+        <v>0.2581035288989751</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2419824257800085</v>
+        <v>0.2419610100689257</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2756075968873681</v>
+        <v>0.2751997116316658</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1157</v>
@@ -11255,19 +11255,19 @@
         <v>823166</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>778316</v>
+        <v>778666</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>868860</v>
+        <v>867876</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.227659953408371</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2152558775884153</v>
+        <v>0.2153528993325512</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2402974597624176</v>
+        <v>0.2400251533129699</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1973</v>
@@ -11276,19 +11276,19 @@
         <v>1707295</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1626829</v>
+        <v>1629746</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1786423</v>
+        <v>1771291</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2424703822553193</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2310425515943439</v>
+        <v>0.2314567473057169</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2537080981464024</v>
+        <v>0.2515590398808968</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>756324</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>702166</v>
+        <v>707109</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>809256</v>
+        <v>812079</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2207933937296798</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2049830619626649</v>
+        <v>0.2064260466707447</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2362458554998942</v>
+        <v>0.2370697356929165</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1232</v>
@@ -11326,19 +11326,19 @@
         <v>838089</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>789877</v>
+        <v>790314</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>882147</v>
+        <v>883451</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2317873040001716</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.218453288398458</v>
+        <v>0.2185742648024372</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2439722965399952</v>
+        <v>0.2443327545137117</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1981</v>
@@ -11347,19 +11347,19 @@
         <v>1594414</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1528605</v>
+        <v>1524612</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1673298</v>
+        <v>1665110</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2264389004967426</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2170927877085731</v>
+        <v>0.2165256994489878</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2376420752389286</v>
+        <v>0.2364792312098419</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>669051</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>624391</v>
+        <v>623010</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>717314</v>
+        <v>720077</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1953157349671268</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1822783086332505</v>
+        <v>0.181875057458096</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2094050283290116</v>
+        <v>0.2102116837351838</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1529</v>
@@ -11397,19 +11397,19 @@
         <v>993038</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>947870</v>
+        <v>945551</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1045521</v>
+        <v>1041890</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2746409492421296</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.262148948403966</v>
+        <v>0.261507663403645</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2891557974038962</v>
+        <v>0.2881515997647717</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2259</v>
@@ -11418,19 +11418,19 @@
         <v>1662089</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1596588</v>
+        <v>1596605</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1730924</v>
+        <v>1733776</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2360501982263217</v>
+        <v>0.2360501982263216</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2267477811469391</v>
+        <v>0.2267501621857535</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.245826175274846</v>
+        <v>0.246231168942498</v>
       </c>
     </row>
     <row r="38">
